--- a/April_2024/Complete/laliga.xlsx
+++ b/April_2024/Complete/laliga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/April_2024/Complete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7245D69BDF68500E62355476585DCE3A874734C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8BBB34-B23B-412A-9B78-85821C4F17CD}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_7245D69BDF68500E62355476585DCE3A874734C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420C1843-6168-4027-9D7A-4CF63CFDE477}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,7 +760,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A2" sqref="A2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
